--- a/£CURY.xlsx
+++ b/£CURY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC576D4-834D-4FD7-9FF8-5EC84C64C4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDC3ECC-B85F-44AC-9C75-D6E40051E518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B674080-5ABB-40FD-8ADD-BC72129A44FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8B674080-5ABB-40FD-8ADD-BC72129A44FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>£CURY</t>
   </si>
@@ -137,6 +128,57 @@
   </si>
   <si>
     <t>EV/E</t>
+  </si>
+  <si>
+    <t>FY16</t>
+  </si>
+  <si>
+    <t>FY17</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>FY31</t>
+  </si>
+  <si>
+    <t>FY32</t>
   </si>
 </sst>
 </file>
@@ -146,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +206,33 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -283,22 +352,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -308,10 +369,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,12 +382,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -339,14 +390,58 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -727,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC96C35-DBF5-411F-AADF-59612C2B6650}">
   <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B35:D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -740,15 +835,15 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -756,480 +851,465 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="G5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="5"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="23"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>0.47720000000000001</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="18"/>
+      <c r="D6" s="6"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="13">
         <v>1130</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="18"/>
+      <c r="D7" s="6"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="13">
         <f>C6*C7</f>
         <v>539.23599999999999</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="18"/>
+      <c r="D8" s="6"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="9"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="6"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="9"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="6"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="13">
         <f>C9-C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="18"/>
+      <c r="D11" s="6"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="11"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="14">
         <f>C8-C11</f>
         <v>539.23599999999999</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="18"/>
+      <c r="D12" s="7"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="11"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="G13" s="24"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="18"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="11"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="G14" s="24"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="18"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="18"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="18"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="11"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="18"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="11"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="18"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="11"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="18"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="11"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="G20" s="24"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="18"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="11"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="27"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="24">
         <v>1884</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="24">
         <v>2014</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="19"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="31"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="G5:S5"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B5:D5"/>
@@ -1238,25 +1318,120 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G5:S5"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C32:D32" r:id="rId1" display="Link" xr:uid="{C0AD7702-32D1-4425-A334-0AC047AED3E7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A2E7EB-ECC0-4140-9B15-06FE85D4CF34}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AF3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:32" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="2:32" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="36"/>
+      <c r="V2" s="39">
+        <v>44681</v>
+      </c>
+      <c r="W2" s="39">
+        <v>45045</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="36"/>
+      <c r="W3" s="38">
+        <v>45108</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="W1" r:id="rId1" xr:uid="{C9E92496-A56A-4267-8A91-D7151B63F890}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>